--- a/data_log.xlsx
+++ b/data_log.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\Business-Analytics-with-People-Counter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9451D4A4-713E-4A16-90D0-00B328A57363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>chettinad_mutton_rating</t>
+  </si>
+  <si>
+    <t>chettinad_mutton_plates</t>
+  </si>
+  <si>
+    <t>chettinad_mutton_price</t>
+  </si>
+  <si>
+    <t>mutton_chops_rating</t>
+  </si>
+  <si>
+    <t>veg_manchurian_rating</t>
+  </si>
+  <si>
+    <t>prawn_fry_plates</t>
+  </si>
+  <si>
+    <t>mutton_chops_plates</t>
+  </si>
+  <si>
+    <t>chicken_nuggets_price</t>
+  </si>
+  <si>
+    <t>paneer_tikka_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103,475.4209	</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +78,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF262730"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF262730"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +119,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD5DAE5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD5DAE5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +433,263 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" customWidth="1"/>
+    <col min="13" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>44197</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>78115.13</v>
+      </c>
+      <c r="D2">
+        <v>75.8245</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>170.21299999999999</v>
+      </c>
+      <c r="G2">
+        <v>68.236000000000004</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>179</v>
+      </c>
+      <c r="J2">
+        <v>65.2654</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>179.82300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>44197</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>68.286900000000003</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>175.26589999999999</v>
+      </c>
+      <c r="G3">
+        <v>65</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>179.8236</v>
+      </c>
+      <c r="J3">
+        <v>70.784499999999994</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>179.56399999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>44197</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>103475.4209</v>
+      </c>
+      <c r="D4">
+        <v>70.568899999999999</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>176.2971</v>
+      </c>
+      <c r="G4">
+        <v>68.156000000000006</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>179.8569</v>
+      </c>
+      <c r="J4">
+        <v>66.325400000000002</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>178.256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>